--- a/jsonformatter.xlsx
+++ b/jsonformatter.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1204">
   <si>
     <t>動機|0.35929642706871545|單元|0.35929642706871545|生活|0.25596160542065693|目標|0.23260432980855794|學生|0.1987324687174719</t>
   </si>
@@ -61,7 +61,7 @@
     <t>單元|0.3193746018388582|累積|0.22928524361361619|經驗|0.19077706691584145|基礎|0.17838020295394091|動機|0.1596873009194291</t>
   </si>
   <si>
-    <t>確認|0.38562252524840296|：「|0.25686749225367494|分列|0.19281126262420148|發問|0.19281126262420148|診斷|0.19281126262420148</t>
+    <t>確認|0.4016901304670864|：「|0.26757030443091134|診斷|0.2008450652335432|分列|0.2008450652335432|發問|0.2008450652335432</t>
   </si>
   <si>
     <t>物品|0.4905696006407352|分成|0.3915485748464572|一個|0.2075693908026518|幾份|0.11356141069569822|數份|0.11356141069569822</t>
@@ -223,7 +223,7 @@
     <t>時間|0.8027109132927341|所能|0.1987324687174719|距離|0.1987324687174719|到達|0.1987324687174719</t>
   </si>
   <si>
-    <t>：(|0.1987324687174719|未填寫|0.1987324687174719|第一句|0.1987324687174719|我會|0.1987324687174719</t>
+    <t>未填寫|0.2649766249566292|第一句|0.2649766249566292|我會|0.2649766249566292</t>
   </si>
   <si>
     <t>90|0.28354597444735513|80|0.2427726108850054|60|0.2189217221727604|30|0.2189217221727604|hr|0.09352116174939855</t>
@@ -304,7 +304,7 @@
     <t>抽象|1.2111931464033332|速率|0.3974649374349438</t>
   </si>
   <si>
-    <t>30|0.5316670395624181|)，|0.3443058261146455|數線|0.2947953132175065|hr|0.11356141069569822|70km|0.05678070534784911</t>
+    <t>30|0.5725645041441426|數線|0.31747187577269936|hr|0.12229690382613656|70km|0.06114845191306828|90km|0.06114845191306828</t>
   </si>
   <si>
     <t>30|0.7443338553873855|請問|0.15898597497397754|甲車|0.15898597497397754|看甲車|0.15898597497397754|分開|0.15898597497397754</t>
@@ -547,7 +547,7 @@
     <t>討論|0.5316670395624181|想法|0.2610323832309715|情境|0.2610323832309715|利用|0.22953721740976366|主題|0.22953721740976366</t>
   </si>
   <si>
-    <t>討論|0.48969332591275355|成就|0.18073616865711295|老師|0.17805254274817106|：「|0.16899177121952297|利用|0.12684951488434307</t>
+    <t>討論|0.5029282806671523|成就|0.18562092997217008|老師|0.1828647736332568|：「|0.1735591163876182|利用|0.1302778801514875</t>
   </si>
   <si>
     <t>數量|1.6067605218683456|物體|1.3757114616816972|平分|0.2649766249566292</t>
@@ -697,7 +697,7 @@
     <t>提高|0.25369902976868614|內容|0.23740339033089475|針對|0.1958773303651014|創建|0.1958773303651014|學習動機|0.1958773303651014</t>
   </si>
   <si>
-    <t>說法|0.38054854465302923|經驗|0.3614723373142259|講解|0.1958773303651014|：「|0.16899177121952297|)，|0.12684951488434307</t>
+    <t>說法|0.3908336404544625|經驗|0.37124185994434017|講解|0.20117131226686094|：「|0.1735591163876182|記憶|0.1302778801514875</t>
   </si>
   <si>
     <t>計算|0.589590626435013|數字|0.5316670395624181|方式|0.2606498988644351|10|0.22712282139139645|除法|0.11356141069569822</t>
@@ -1141,9 +1141,6 @@
     <t>快慢|0.9640563131210075|物體|0.8254268770090184|用來|0.6057044192753964|程度|0.4224462729005654|運動|0.15898597497397754</t>
   </si>
   <si>
-    <t>未填寫|0.2649766249566292|第一句|0.2649766249566292|我會|0.2649766249566292</t>
-  </si>
-  <si>
     <t>45|0.6878557308408486|35|0.6202782128228211|90|0.4016901304670864|80|0.3439278654204243|0.5|0.1987324687174719</t>
   </si>
   <si>
@@ -1219,7 +1216,7 @@
     <t>老師|0.5638330520358751|第一句|0.1987324687174719|爬山|0.1987324687174719|我會|0.1987324687174719</t>
   </si>
   <si>
-    <t>90|0.3213521043736691|簡化|0.16067605218683456|80|0.13757114616816973|30|0.12405564256456424|一個|0.09686571570790418</t>
+    <t>90|0.33243321142103704|簡化|0.16621660571051852|80|0.14231497879465832|30|0.12833342334265266|一個|0.10020591280128019</t>
   </si>
   <si>
     <t>解題|0.4844772585613333|認知|0.32844554705141826|複合式|0.15898597497397754|衝突|0.15898597497397754|學生|0.15898597497397754</t>
@@ -1291,7 +1288,7 @@
     <t>時間|1.0702812177236454|距離|0.2649766249566292|速率|0.2649766249566292</t>
   </si>
   <si>
-    <t>舉例|0.48202815656050374|單位|0.48202815656050374|15|0.37216692769369275|時間|0.32108436531709367|：(|0.07949298748698877</t>
+    <t>舉例|0.5355868406227818|單位|0.5355868406227818|15|0.41351880854854745|時間|0.35676040590788183|換算|0.08832554165220974</t>
   </si>
   <si>
     <t>60|0.6202782128228211|30|0.6202782128228211| × |0.1324883124783146|80km|0.0662441562391573|km|0.0662441562391573</t>
@@ -1444,7 +1441,7 @@
     <t>注意力|0.28354597444735513|再用|0.2427726108850054|包裝|0.2189217221727604|吸引|0.2189217221727604|儘量|0.1888731560688786</t>
   </si>
   <si>
-    <t>回答|0.6349437515453987|)，|0.37079088966192597|舉例|0.37079088966192597|引導|0.31747187577269936|講解|0.2862822520720713</t>
+    <t>回答|0.6878557308408486|舉例|0.4016901304670864|引導|0.3439278654204243|講解|0.31013910641141057|討論|0.31013910641141057</t>
   </si>
   <si>
     <t>90|0.48202815656050374|80|0.4127134385045092|30|0.37216692769369275|\u003d |0.07949298748698877|) × |0.07949298748698877</t>
@@ -1612,13 +1609,13 @@
     <t>想像|0.688611652229291|時間|0.45869195045299094|方向|0.11356141069569822|剛好|0.11356141069569822|速率|0.11356141069569822</t>
   </si>
   <si>
-    <t>)，|0.4016901304670864|題意|0.3439278654204243|計算|0.3439278654204243|表格|0.31013910641141057|式子|0.28616560037376215</t>
+    <t>題意|0.37519403500409926|計算|0.37519403500409926|表格|0.33833357063062974|式子|0.31218065495319514|故事|0.23845972620625613</t>
   </si>
   <si>
     <t>意願|0.6421687306341873|單元|0.5748742833099447|類型|0.5035392945221983|學習|0.2587842081977751|學生|0.15898597497397754</t>
   </si>
   <si>
-    <t>)，|0.5355868406227818|引導|0.45857048722723237|動機|0.3193746018388582|故事|0.29145077647431306|思考|0.23469237383364744</t>
+    <t>引導|0.5158917981306365|動機|0.35929642706871545|故事|0.3278821235336022|思考|0.2640289205628534|活動|0.25596160542065693</t>
   </si>
   <si>
     <t>上臺|0.4016901304670864|課程|0.20186552440055552|老師|0.18794435067862503|有沒有|0.0662441562391573|題目|0.0662441562391573</t>
@@ -2197,7 +2194,7 @@
     <t>數學老師|0.9640563131210075|講解|0.7443338553873855|理解|0.4224462729005654|一名|0.15898597497397754|學生|0.15898597497397754</t>
   </si>
   <si>
-    <t>)，|0.48202815656050374|學習動機|0.37216692769369275|單元|0.28743714165497236|鏈接|0.2740840023925201|生活|0.20476928433652555</t>
+    <t>學習動機|0.41351880854854745|單元|0.3193746018388582|鏈接|0.3045377804361334|生活|0.22752142704058392|概念|0.15050507364503446</t>
   </si>
   <si>
     <t>茫然|0.3443058261146455|詢問|0.2947953132175065|代表|0.1957742874232286|思考|0.15087366889305906|方式|0.13032494943221756</t>
@@ -2437,7 +2434,7 @@
     <t>教學內容|0.2008450652335432|擔憂|0.2008450652335432|缺失|0.2008450652335432|銜接|0.17196393271021215|感到|0.17196393271021215</t>
   </si>
   <si>
-    <t>教具|0.4905696006407352|上課|0.22953721740976366|)，|0.22953721740976366|舉例|0.22953721740976366|年級|0.19653020881167102</t>
+    <t>教具|0.515098080672772|上課|0.24101407828025187|舉例|0.24101407828025187|年級|0.2063567192522546|講解|0.18608346384684638</t>
   </si>
   <si>
     <t>上課|0.37079088966192597|號碼|0.37079088966192597|回答|0.31747187577269936|一個|0.22353626701824042|同學|0.12229690382613656</t>
@@ -2506,7 +2503,7 @@
     <t>單元|0.5748742833099447|知識|0.5035392945221983|詢問|0.4127134385045092|思考|0.2112231364502827|小朋友|0.15898597497397754</t>
   </si>
   <si>
-    <t>數量|0.5355868406227818|)，|0.2677934203113909|聽不懂|0.22928524361361619|主動|0.20675940427427372|小朋友|0.17665108330441948</t>
+    <t>數量|0.5670919488947103|聽不懂|0.2427726108850054|主動|0.2189217221727604|小朋友|0.1870423234987971|一種|0.1781483586104107</t>
   </si>
   <si>
     <t>分數|0.8033802609341728|選取|0.8033802609341728|東西|0.6878557308408486|切割|0.1324883124783146|一份|0.1324883124783146</t>
@@ -2650,7 +2647,7 @@
     <t>空間|0.8033802609341728|教具|0.5723312007475243|輔助|0.5723312007475243|物品|0.5723312007475243|得以|0.1324883124783146</t>
   </si>
   <si>
-    <t>單元|0.45384811840258793|)，|0.25369902976868614|至少|0.1958773303651014|有趣|0.1958773303651014|興趣|0.14425473810132636</t>
+    <t>單元|0.47906190275828725|至少|0.20675940427427372|有趣|0.20675940427427372|興趣|0.1522688902180667|想法|0.1522688902180667</t>
   </si>
   <si>
     <t>聽懂|0.2677934203113909|舉例|0.2677934203113909|茫然|0.2677934203113909|聽不懂|0.22928524361361619|想法|0.1522688902180667</t>
@@ -2794,7 +2791,7 @@
     <t>介入|0.4382074150550034|主題|0.4382074150550034|情境|0.24916727490229099|方式|0.165868117459186|一個|0.13208961232896024</t>
   </si>
   <si>
-    <t>)，|0.16621660571051852|鼓勵|0.16621660571051852|增強|0.16621660571051852|聽懂|0.16621660571051852|善用|0.16621660571051852</t>
+    <t>鼓勵|0.17215291305732275|增強|0.17215291305732275|聽懂|0.17215291305732275|善用|0.17215291305732275|詢問|0.14739765660875326</t>
   </si>
   <si>
     <t>單位|0.6025351957006296|數量|0.6025351957006296|物品|0.4292484005606433|方式|0.22806866150638075|可得|0.09936623435873596</t>
@@ -3268,7 +3265,7 @@
     <t>同上|0.7949298748698876</t>
   </si>
   <si>
-    <t>事物|0.3278821235336022|)，|0.3012675978503148|面對|0.23260432980855794|提升|0.17964821353435773|興趣|0.17130250149532505</t>
+    <t>事物|0.34974093176917564|面對|0.24811128512912847|提升|0.19162476110331492|興趣|0.18272266826168004|故事|0.17487046588458782</t>
   </si>
   <si>
     <t>老師|0.32219031544907145|理解|0.3017473377861181|程度|0.3017473377861181|教學|0.11613548291036654|個性|0.11356141069569822</t>
@@ -3636,10 +3633,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3658,24 +3655,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3689,22 +3678,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -3719,14 +3707,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -3734,18 +3714,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3757,16 +3730,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3781,6 +3771,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3803,13 +3800,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3827,7 +3836,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3839,13 +3884,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3857,31 +3908,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3893,67 +3968,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3965,25 +3980,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3994,6 +3991,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -4008,24 +4020,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4047,11 +4055,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4067,15 +4073,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4099,142 +4096,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4569,13 +4566,14 @@
   <sheetPr/>
   <dimension ref="A1:N109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J95" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.2" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="127.6" customWidth="1"/>
+    <col min="14" max="14" width="127.1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -5897,212 +5895,212 @@
         <v>374</v>
       </c>
       <c r="H34" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" t="s">
         <v>375</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>376</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>377</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>378</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>379</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>380</v>
-      </c>
-      <c r="N34" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
+        <v>381</v>
+      </c>
+      <c r="B35" t="s">
         <v>382</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>383</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>384</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>385</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G35" t="s">
         <v>386</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>387</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>388</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>389</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>390</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>391</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>392</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>393</v>
-      </c>
-      <c r="N35" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
+        <v>394</v>
+      </c>
+      <c r="B36" t="s">
         <v>395</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>396</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>397</v>
       </c>
-      <c r="E36" t="s">
+      <c r="G36" t="s">
         <v>398</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>399</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>400</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>401</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>402</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>403</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>404</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>405</v>
-      </c>
-      <c r="N36" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
+        <v>406</v>
+      </c>
+      <c r="B37" t="s">
         <v>407</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>408</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>409</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>410</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>411</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>412</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>413</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>414</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>415</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>416</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>417</v>
-      </c>
-      <c r="N37" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
+        <v>418</v>
+      </c>
+      <c r="B38" t="s">
         <v>419</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>420</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>421</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>422</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>423</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>424</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>425</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>426</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>427</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>428</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>429</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>430</v>
-      </c>
-      <c r="N38" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
+        <v>431</v>
+      </c>
+      <c r="B39" t="s">
         <v>432</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>433</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>434</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>435</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
+        <v>434</v>
+      </c>
+      <c r="H39" t="s">
         <v>436</v>
       </c>
-      <c r="F39" t="s">
-        <v>435</v>
-      </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>437</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>438</v>
-      </c>
-      <c r="J39" t="s">
-        <v>439</v>
       </c>
       <c r="K39" t="s">
         <v>198</v>
@@ -6111,147 +6109,147 @@
         <v>262</v>
       </c>
       <c r="M39" t="s">
+        <v>439</v>
+      </c>
+      <c r="N39" t="s">
         <v>440</v>
-      </c>
-      <c r="N39" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
+        <v>441</v>
+      </c>
+      <c r="B40" t="s">
         <v>442</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>443</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
         <v>444</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>445</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>446</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>447</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>448</v>
-      </c>
-      <c r="J40" t="s">
-        <v>449</v>
       </c>
       <c r="K40" t="s">
         <v>323</v>
       </c>
       <c r="L40" t="s">
+        <v>449</v>
+      </c>
+      <c r="M40" t="s">
         <v>450</v>
       </c>
-      <c r="M40" t="s">
+      <c r="N40" t="s">
         <v>451</v>
-      </c>
-      <c r="N40" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
+        <v>452</v>
+      </c>
+      <c r="B41" t="s">
         <v>453</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>454</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>455</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>456</v>
-      </c>
-      <c r="E41" t="s">
-        <v>457</v>
       </c>
       <c r="G41" t="s">
         <v>106</v>
       </c>
       <c r="H41" t="s">
+        <v>457</v>
+      </c>
+      <c r="I41" t="s">
         <v>458</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>459</v>
-      </c>
-      <c r="J41" t="s">
-        <v>460</v>
       </c>
       <c r="K41" t="s">
         <v>198</v>
       </c>
       <c r="L41" t="s">
+        <v>460</v>
+      </c>
+      <c r="M41" t="s">
         <v>461</v>
       </c>
-      <c r="M41" t="s">
+      <c r="N41" t="s">
         <v>462</v>
-      </c>
-      <c r="N41" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
+        <v>463</v>
+      </c>
+      <c r="B42" t="s">
         <v>464</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>465</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>466</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>467</v>
-      </c>
-      <c r="E42" t="s">
-        <v>468</v>
       </c>
       <c r="G42" t="s">
         <v>106</v>
       </c>
       <c r="H42" t="s">
+        <v>468</v>
+      </c>
+      <c r="I42" t="s">
         <v>469</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>470</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>471</v>
-      </c>
-      <c r="K42" t="s">
-        <v>472</v>
       </c>
       <c r="L42" t="s">
         <v>262</v>
       </c>
       <c r="M42" t="s">
+        <v>472</v>
+      </c>
+      <c r="N42" t="s">
         <v>473</v>
-      </c>
-      <c r="N42" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
+        <v>474</v>
+      </c>
+      <c r="B43" t="s">
         <v>475</v>
       </c>
-      <c r="B43" t="s">
+      <c r="I43" t="s">
         <v>476</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>477</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>478</v>
-      </c>
-      <c r="K43" t="s">
-        <v>479</v>
       </c>
       <c r="L43" t="s">
         <v>262</v>
@@ -6260,115 +6258,115 @@
         <v>262</v>
       </c>
       <c r="N43" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
+        <v>480</v>
+      </c>
+      <c r="B44" t="s">
         <v>481</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>482</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>483</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>484</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>485</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>486</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>487</v>
-      </c>
-      <c r="J44" t="s">
-        <v>488</v>
       </c>
       <c r="K44" t="s">
         <v>323</v>
       </c>
       <c r="L44" t="s">
+        <v>488</v>
+      </c>
+      <c r="M44" t="s">
+        <v>439</v>
+      </c>
+      <c r="N44" t="s">
         <v>489</v>
-      </c>
-      <c r="M44" t="s">
-        <v>440</v>
-      </c>
-      <c r="N44" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
+        <v>490</v>
+      </c>
+      <c r="B45" t="s">
         <v>491</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>492</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>493</v>
-      </c>
-      <c r="D45" t="s">
-        <v>494</v>
       </c>
       <c r="E45" t="s">
         <v>242</v>
       </c>
       <c r="G45" t="s">
+        <v>494</v>
+      </c>
+      <c r="I45" t="s">
+        <v>375</v>
+      </c>
+      <c r="J45" t="s">
         <v>495</v>
       </c>
-      <c r="I45" t="s">
-        <v>376</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>496</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>497</v>
       </c>
-      <c r="L45" t="s">
+      <c r="M45" t="s">
         <v>498</v>
       </c>
-      <c r="M45" t="s">
+      <c r="N45" t="s">
         <v>499</v>
-      </c>
-      <c r="N45" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
+        <v>500</v>
+      </c>
+      <c r="B46" t="s">
         <v>501</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>502</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>503</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>504</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
+        <v>503</v>
+      </c>
+      <c r="G46" t="s">
         <v>505</v>
       </c>
-      <c r="F46" t="s">
-        <v>504</v>
-      </c>
-      <c r="G46" t="s">
+      <c r="I46" t="s">
         <v>506</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>507</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>508</v>
-      </c>
-      <c r="K46" t="s">
-        <v>509</v>
       </c>
       <c r="L46" t="s">
         <v>262</v>
@@ -6377,343 +6375,343 @@
         <v>262</v>
       </c>
       <c r="N46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
+        <v>510</v>
+      </c>
+      <c r="B47" t="s">
         <v>511</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>512</v>
       </c>
-      <c r="C47" t="s">
+      <c r="E47" t="s">
         <v>513</v>
       </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
         <v>514</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>515</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>516</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
+        <v>438</v>
+      </c>
+      <c r="K47" t="s">
         <v>517</v>
-      </c>
-      <c r="J47" t="s">
-        <v>439</v>
-      </c>
-      <c r="K47" t="s">
-        <v>518</v>
       </c>
       <c r="L47" t="s">
         <v>262</v>
       </c>
       <c r="M47" t="s">
+        <v>518</v>
+      </c>
+      <c r="N47" t="s">
         <v>519</v>
-      </c>
-      <c r="N47" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
+        <v>520</v>
+      </c>
+      <c r="B48" t="s">
         <v>521</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>522</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>523</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>524</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>525</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>526</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>527</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>528</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>529</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>530</v>
       </c>
-      <c r="L48" t="s">
+      <c r="M48" t="s">
         <v>531</v>
       </c>
-      <c r="M48" t="s">
+      <c r="N48" t="s">
         <v>532</v>
-      </c>
-      <c r="N48" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
+        <v>533</v>
+      </c>
+      <c r="B49" t="s">
         <v>534</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>535</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>536</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>537</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>538</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>539</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>540</v>
-      </c>
-      <c r="J49" t="s">
-        <v>541</v>
       </c>
       <c r="K49" t="s">
         <v>47</v>
       </c>
       <c r="L49" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M49" t="s">
+        <v>541</v>
+      </c>
+      <c r="N49" t="s">
         <v>542</v>
-      </c>
-      <c r="N49" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
+        <v>543</v>
+      </c>
+      <c r="B50" t="s">
         <v>544</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>545</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>546</v>
       </c>
-      <c r="D50" t="s">
+      <c r="F50" t="s">
         <v>547</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
+        <v>423</v>
+      </c>
+      <c r="I50" t="s">
         <v>548</v>
       </c>
-      <c r="G50" t="s">
-        <v>424</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>549</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>550</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>551</v>
       </c>
-      <c r="L50" t="s">
+      <c r="M50" t="s">
         <v>552</v>
       </c>
-      <c r="M50" t="s">
+      <c r="N50" t="s">
         <v>553</v>
-      </c>
-      <c r="N50" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
+        <v>554</v>
+      </c>
+      <c r="B51" t="s">
         <v>555</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>556</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>557</v>
-      </c>
-      <c r="D51" t="s">
-        <v>558</v>
       </c>
       <c r="E51" t="s">
         <v>372</v>
       </c>
       <c r="F51" t="s">
+        <v>558</v>
+      </c>
+      <c r="G51" t="s">
         <v>559</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>560</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>561</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
+        <v>376</v>
+      </c>
+      <c r="K51" t="s">
         <v>562</v>
       </c>
-      <c r="J51" t="s">
-        <v>377</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>563</v>
       </c>
-      <c r="L51" t="s">
+      <c r="M51" t="s">
         <v>564</v>
       </c>
-      <c r="M51" t="s">
+      <c r="N51" t="s">
         <v>565</v>
-      </c>
-      <c r="N51" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
+        <v>566</v>
+      </c>
+      <c r="B52" t="s">
         <v>567</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>568</v>
       </c>
-      <c r="C52" t="s">
-        <v>569</v>
-      </c>
       <c r="E52" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G52" t="s">
         <v>106</v>
       </c>
       <c r="H52" t="s">
+        <v>569</v>
+      </c>
+      <c r="I52" t="s">
         <v>570</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>571</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>572</v>
       </c>
-      <c r="K52" t="s">
+      <c r="L52" t="s">
         <v>573</v>
       </c>
-      <c r="L52" t="s">
+      <c r="M52" t="s">
         <v>574</v>
       </c>
-      <c r="M52" t="s">
+      <c r="N52" t="s">
         <v>575</v>
-      </c>
-      <c r="N52" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
+        <v>576</v>
+      </c>
+      <c r="B53" t="s">
         <v>577</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>578</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>579</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>580</v>
-      </c>
-      <c r="E53" t="s">
-        <v>581</v>
       </c>
       <c r="G53" t="s">
         <v>106</v>
       </c>
       <c r="I53" t="s">
+        <v>581</v>
+      </c>
+      <c r="J53" t="s">
         <v>582</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>583</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L53" t="s">
         <v>584</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M53" t="s">
         <v>585</v>
       </c>
-      <c r="M53" t="s">
+      <c r="N53" t="s">
         <v>586</v>
-      </c>
-      <c r="N53" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
+        <v>587</v>
+      </c>
+      <c r="B54" t="s">
         <v>588</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>589</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>590</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>591</v>
       </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
         <v>592</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>593</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>594</v>
       </c>
-      <c r="K54" t="s">
+      <c r="L54" t="s">
         <v>595</v>
       </c>
-      <c r="L54" t="s">
+      <c r="M54" t="s">
         <v>596</v>
       </c>
-      <c r="M54" t="s">
+      <c r="N54" t="s">
         <v>597</v>
-      </c>
-      <c r="N54" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
+        <v>598</v>
+      </c>
+      <c r="B55" t="s">
         <v>599</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
         <v>600</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>601</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>602</v>
       </c>
-      <c r="G55" t="s">
+      <c r="I55" t="s">
         <v>603</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
+        <v>423</v>
+      </c>
+      <c r="K55" t="s">
         <v>604</v>
-      </c>
-      <c r="J55" t="s">
-        <v>424</v>
-      </c>
-      <c r="K55" t="s">
-        <v>605</v>
       </c>
       <c r="L55" t="s">
         <v>262</v>
@@ -6722,403 +6720,403 @@
         <v>262</v>
       </c>
       <c r="N55" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
+        <v>606</v>
+      </c>
+      <c r="B56" t="s">
         <v>607</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
         <v>608</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>609</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>610</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>611</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>612</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>613</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>614</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>615</v>
       </c>
-      <c r="K56" t="s">
+      <c r="L56" t="s">
         <v>616</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>617</v>
       </c>
-      <c r="M56" t="s">
+      <c r="N56" t="s">
         <v>618</v>
-      </c>
-      <c r="N56" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
+        <v>619</v>
+      </c>
+      <c r="B57" t="s">
         <v>620</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
         <v>621</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>622</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>623</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>624</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>625</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>626</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>627</v>
       </c>
-      <c r="K57" t="s">
+      <c r="L57" t="s">
         <v>628</v>
       </c>
-      <c r="L57" t="s">
+      <c r="M57" t="s">
         <v>629</v>
       </c>
-      <c r="M57" t="s">
+      <c r="N57" t="s">
         <v>630</v>
-      </c>
-      <c r="N57" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
+        <v>631</v>
+      </c>
+      <c r="B58" t="s">
         <v>632</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>633</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
+        <v>524</v>
+      </c>
+      <c r="G58" t="s">
         <v>634</v>
       </c>
-      <c r="E58" t="s">
-        <v>525</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>635</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>636</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>637</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>638</v>
       </c>
-      <c r="K58" t="s">
+      <c r="L58" t="s">
         <v>639</v>
       </c>
-      <c r="L58" t="s">
+      <c r="M58" t="s">
         <v>640</v>
       </c>
-      <c r="M58" t="s">
+      <c r="N58" t="s">
         <v>641</v>
-      </c>
-      <c r="N58" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="59" spans="9:9">
       <c r="I59" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
+        <v>643</v>
+      </c>
+      <c r="B60" t="s">
         <v>644</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>645</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>646</v>
       </c>
-      <c r="D60" t="s">
+      <c r="E60" t="s">
         <v>647</v>
-      </c>
-      <c r="E60" t="s">
-        <v>648</v>
       </c>
       <c r="G60" t="s">
         <v>194</v>
       </c>
       <c r="I60" t="s">
+        <v>648</v>
+      </c>
+      <c r="J60" t="s">
         <v>649</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>650</v>
       </c>
-      <c r="K60" t="s">
+      <c r="L60" t="s">
         <v>651</v>
       </c>
-      <c r="L60" t="s">
+      <c r="M60" t="s">
         <v>652</v>
       </c>
-      <c r="M60" t="s">
+      <c r="N60" t="s">
         <v>653</v>
-      </c>
-      <c r="N60" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
+        <v>654</v>
+      </c>
+      <c r="B61" t="s">
         <v>655</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
         <v>656</v>
       </c>
-      <c r="C61" t="s">
+      <c r="E61" t="s">
         <v>657</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>658</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>659</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>660</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>661</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>662</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>663</v>
-      </c>
-      <c r="L61" t="s">
-        <v>664</v>
       </c>
       <c r="M61" t="s">
         <v>49</v>
       </c>
       <c r="N61" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="A62" t="s">
+        <v>665</v>
+      </c>
+      <c r="B62" t="s">
         <v>666</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>667</v>
       </c>
-      <c r="C62" t="s">
+      <c r="E62" t="s">
         <v>668</v>
       </c>
-      <c r="E62" t="s">
+      <c r="G62" t="s">
         <v>669</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>670</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>671</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>672</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>673</v>
       </c>
-      <c r="K62" t="s">
+      <c r="L62" t="s">
         <v>674</v>
       </c>
-      <c r="L62" t="s">
+      <c r="M62" t="s">
         <v>675</v>
       </c>
-      <c r="M62" t="s">
+      <c r="N62" t="s">
         <v>676</v>
-      </c>
-      <c r="N62" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
+        <v>677</v>
+      </c>
+      <c r="B63" t="s">
         <v>678</v>
       </c>
-      <c r="B63" t="s">
+      <c r="I63" t="s">
+        <v>648</v>
+      </c>
+      <c r="J63" t="s">
         <v>679</v>
       </c>
-      <c r="I63" t="s">
-        <v>649</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>680</v>
       </c>
-      <c r="K63" t="s">
+      <c r="L63" t="s">
         <v>681</v>
       </c>
-      <c r="L63" t="s">
+      <c r="M63" t="s">
         <v>682</v>
       </c>
-      <c r="M63" t="s">
+      <c r="N63" t="s">
         <v>683</v>
-      </c>
-      <c r="N63" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
+        <v>684</v>
+      </c>
+      <c r="B64" t="s">
         <v>685</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>686</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>687</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>688</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>689</v>
       </c>
-      <c r="F64" t="s">
+      <c r="I64" t="s">
         <v>690</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>691</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>692</v>
       </c>
-      <c r="K64" t="s">
+      <c r="L64" t="s">
         <v>693</v>
       </c>
-      <c r="L64" t="s">
+      <c r="M64" t="s">
         <v>694</v>
       </c>
-      <c r="M64" t="s">
+      <c r="N64" t="s">
         <v>695</v>
-      </c>
-      <c r="N64" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
+        <v>696</v>
+      </c>
+      <c r="B65" t="s">
         <v>697</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>698</v>
       </c>
-      <c r="C65" t="s">
+      <c r="E65" t="s">
         <v>699</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>700</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>701</v>
       </c>
-      <c r="G65" t="s">
+      <c r="I65" t="s">
         <v>702</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>703</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>704</v>
       </c>
-      <c r="K65" t="s">
+      <c r="L65" t="s">
         <v>705</v>
       </c>
-      <c r="L65" t="s">
+      <c r="M65" t="s">
         <v>706</v>
       </c>
-      <c r="M65" t="s">
+      <c r="N65" t="s">
         <v>707</v>
-      </c>
-      <c r="N65" t="s">
-        <v>708</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
+        <v>708</v>
+      </c>
+      <c r="B66" t="s">
         <v>709</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>710</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>711</v>
       </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
         <v>712</v>
-      </c>
-      <c r="E66" t="s">
-        <v>713</v>
       </c>
       <c r="F66" t="s">
         <v>205</v>
       </c>
       <c r="G66" t="s">
+        <v>713</v>
+      </c>
+      <c r="H66" t="s">
         <v>714</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>715</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>716</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>717</v>
       </c>
-      <c r="K66" t="s">
+      <c r="L66" t="s">
         <v>718</v>
       </c>
-      <c r="L66" t="s">
+      <c r="M66" t="s">
         <v>719</v>
       </c>
-      <c r="M66" t="s">
+      <c r="N66" t="s">
         <v>720</v>
-      </c>
-      <c r="N66" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
+        <v>721</v>
+      </c>
+      <c r="B67" t="s">
         <v>722</v>
       </c>
-      <c r="B67" t="s">
+      <c r="I67" t="s">
         <v>723</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>724</v>
-      </c>
-      <c r="J67" t="s">
-        <v>725</v>
       </c>
       <c r="K67" t="s">
         <v>262</v>
@@ -7130,45 +7128,45 @@
         <v>262</v>
       </c>
       <c r="N67" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
+        <v>726</v>
+      </c>
+      <c r="B68" t="s">
         <v>727</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>728</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E68" t="s">
         <v>729</v>
       </c>
-      <c r="E68" t="s">
+      <c r="G68" t="s">
         <v>730</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>731</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>732</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>733</v>
-      </c>
-      <c r="J68" t="s">
-        <v>734</v>
       </c>
       <c r="K68" t="s">
         <v>262</v>
       </c>
       <c r="L68" t="s">
+        <v>734</v>
+      </c>
+      <c r="M68" t="s">
         <v>735</v>
       </c>
-      <c r="M68" t="s">
+      <c r="N68" t="s">
         <v>736</v>
-      </c>
-      <c r="N68" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -7176,124 +7174,124 @@
         <v>262</v>
       </c>
       <c r="B69" t="s">
+        <v>737</v>
+      </c>
+      <c r="C69" t="s">
         <v>738</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E69" t="s">
         <v>739</v>
       </c>
-      <c r="E69" t="s">
+      <c r="G69" t="s">
         <v>740</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>741</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>742</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>743</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>744</v>
-      </c>
-      <c r="K69" t="s">
-        <v>745</v>
       </c>
       <c r="L69" t="s">
         <v>262</v>
       </c>
       <c r="M69" t="s">
+        <v>745</v>
+      </c>
+      <c r="N69" t="s">
         <v>746</v>
-      </c>
-      <c r="N69" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
+        <v>747</v>
+      </c>
+      <c r="B70" t="s">
         <v>748</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>749</v>
-      </c>
-      <c r="C70" t="s">
-        <v>750</v>
       </c>
       <c r="E70" t="s">
         <v>339</v>
       </c>
       <c r="G70" t="s">
+        <v>750</v>
+      </c>
+      <c r="H70" t="s">
         <v>751</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
+        <v>636</v>
+      </c>
+      <c r="J70" t="s">
         <v>752</v>
       </c>
-      <c r="I70" t="s">
-        <v>637</v>
-      </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>753</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>754</v>
       </c>
-      <c r="L70" t="s">
+      <c r="M70" t="s">
         <v>755</v>
       </c>
-      <c r="M70" t="s">
+      <c r="N70" t="s">
         <v>756</v>
-      </c>
-      <c r="N70" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
+        <v>757</v>
+      </c>
+      <c r="B71" t="s">
         <v>758</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>759</v>
       </c>
-      <c r="C71" t="s">
+      <c r="E71" t="s">
         <v>760</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>761</v>
       </c>
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>762</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>763</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>764</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>765</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>766</v>
       </c>
-      <c r="K71" t="s">
+      <c r="L71" t="s">
         <v>767</v>
       </c>
-      <c r="L71" t="s">
+      <c r="M71" t="s">
         <v>768</v>
       </c>
-      <c r="M71" t="s">
+      <c r="N71" t="s">
         <v>769</v>
-      </c>
-      <c r="N71" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
+        <v>770</v>
+      </c>
+      <c r="B72" t="s">
         <v>771</v>
-      </c>
-      <c r="B72" t="s">
-        <v>772</v>
       </c>
       <c r="I72" t="s">
         <v>262</v>
@@ -7316,517 +7314,517 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
+        <v>772</v>
+      </c>
+      <c r="B73" t="s">
         <v>773</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>774</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>775</v>
       </c>
-      <c r="D73" t="s">
+      <c r="E73" t="s">
         <v>776</v>
       </c>
-      <c r="E73" t="s">
+      <c r="G73" t="s">
         <v>777</v>
       </c>
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>778</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>779</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>780</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
+        <v>752</v>
+      </c>
+      <c r="L73" t="s">
         <v>781</v>
       </c>
-      <c r="K73" t="s">
-        <v>753</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="M73" t="s">
         <v>782</v>
       </c>
-      <c r="M73" t="s">
+      <c r="N73" t="s">
         <v>783</v>
-      </c>
-      <c r="N73" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
+        <v>784</v>
+      </c>
+      <c r="B74" t="s">
         <v>785</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
         <v>786</v>
       </c>
-      <c r="C74" t="s">
+      <c r="E74" t="s">
         <v>787</v>
       </c>
-      <c r="E74" t="s">
-        <v>788</v>
-      </c>
       <c r="F74" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G74" t="s">
         <v>341</v>
       </c>
       <c r="I74" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J74" t="s">
         <v>84</v>
       </c>
       <c r="K74" t="s">
+        <v>788</v>
+      </c>
+      <c r="L74" t="s">
         <v>789</v>
       </c>
-      <c r="L74" t="s">
+      <c r="M74" t="s">
         <v>790</v>
       </c>
-      <c r="M74" t="s">
+      <c r="N74" t="s">
         <v>791</v>
-      </c>
-      <c r="N74" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
+        <v>792</v>
+      </c>
+      <c r="B75" t="s">
         <v>793</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>794</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>795</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>796</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>797</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>798</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>799</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>800</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>801</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>802</v>
       </c>
-      <c r="K75" t="s">
+      <c r="L75" t="s">
         <v>803</v>
       </c>
-      <c r="L75" t="s">
+      <c r="M75" t="s">
         <v>804</v>
       </c>
-      <c r="M75" t="s">
+      <c r="N75" t="s">
         <v>805</v>
-      </c>
-      <c r="N75" t="s">
-        <v>806</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
+        <v>806</v>
+      </c>
+      <c r="B76" t="s">
         <v>807</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>808</v>
       </c>
-      <c r="C76" t="s">
+      <c r="E76" t="s">
         <v>809</v>
       </c>
-      <c r="E76" t="s">
+      <c r="G76" t="s">
         <v>810</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>811</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>812</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>813</v>
-      </c>
-      <c r="J76" t="s">
-        <v>814</v>
       </c>
       <c r="K76" t="s">
         <v>198</v>
       </c>
       <c r="L76" t="s">
+        <v>814</v>
+      </c>
+      <c r="M76" t="s">
         <v>815</v>
       </c>
-      <c r="M76" t="s">
+      <c r="N76" t="s">
         <v>816</v>
-      </c>
-      <c r="N76" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
+        <v>817</v>
+      </c>
+      <c r="B77" t="s">
         <v>818</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>819</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>820</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>821</v>
       </c>
-      <c r="E77" t="s">
+      <c r="G77" t="s">
         <v>822</v>
       </c>
-      <c r="G77" t="s">
+      <c r="I77" t="s">
+        <v>742</v>
+      </c>
+      <c r="J77" t="s">
         <v>823</v>
       </c>
-      <c r="I77" t="s">
-        <v>743</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>824</v>
       </c>
-      <c r="K77" t="s">
+      <c r="L77" t="s">
         <v>825</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>826</v>
       </c>
-      <c r="M77" t="s">
+      <c r="N77" t="s">
         <v>827</v>
-      </c>
-      <c r="N77" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
+        <v>828</v>
+      </c>
+      <c r="B78" t="s">
         <v>829</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>830</v>
       </c>
-      <c r="C78" t="s">
+      <c r="E78" t="s">
         <v>831</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>832</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>833</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>834</v>
       </c>
-      <c r="H78" t="s">
-        <v>835</v>
-      </c>
       <c r="I78" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="J78" t="s">
         <v>278</v>
       </c>
       <c r="K78" t="s">
+        <v>835</v>
+      </c>
+      <c r="L78" t="s">
         <v>836</v>
       </c>
-      <c r="L78" t="s">
+      <c r="M78" t="s">
         <v>837</v>
       </c>
-      <c r="M78" t="s">
+      <c r="N78" t="s">
         <v>838</v>
-      </c>
-      <c r="N78" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
+        <v>839</v>
+      </c>
+      <c r="B79" t="s">
         <v>840</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>841</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>842</v>
-      </c>
-      <c r="E79" t="s">
-        <v>843</v>
       </c>
       <c r="F79" t="s">
         <v>262</v>
       </c>
       <c r="G79" t="s">
+        <v>843</v>
+      </c>
+      <c r="I79" t="s">
         <v>844</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>845</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>846</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>847</v>
       </c>
-      <c r="L79" t="s">
+      <c r="M79" t="s">
         <v>848</v>
       </c>
-      <c r="M79" t="s">
+      <c r="N79" t="s">
         <v>849</v>
-      </c>
-      <c r="N79" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
+        <v>850</v>
+      </c>
+      <c r="B80" t="s">
         <v>851</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>852</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>853</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>854</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>855</v>
       </c>
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>856</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>857</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>858</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>859</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>860</v>
       </c>
-      <c r="K80" t="s">
+      <c r="L80" t="s">
         <v>861</v>
       </c>
-      <c r="L80" t="s">
+      <c r="M80" t="s">
         <v>862</v>
       </c>
-      <c r="M80" t="s">
+      <c r="N80" t="s">
         <v>863</v>
-      </c>
-      <c r="N80" t="s">
-        <v>864</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
+        <v>864</v>
+      </c>
+      <c r="B81" t="s">
         <v>865</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
         <v>866</v>
       </c>
-      <c r="C81" t="s">
+      <c r="E81" t="s">
         <v>867</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>868</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>869</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>870</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>871</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>872</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>873</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>874</v>
       </c>
-      <c r="L81" t="s">
+      <c r="M81" t="s">
         <v>875</v>
       </c>
-      <c r="M81" t="s">
+      <c r="N81" t="s">
         <v>876</v>
-      </c>
-      <c r="N81" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" t="s">
+        <v>877</v>
+      </c>
+      <c r="B82" t="s">
         <v>878</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>879</v>
       </c>
-      <c r="C82" t="s">
+      <c r="E82" t="s">
         <v>880</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>881</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>882</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>883</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>884</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>885</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>886</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>887</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>888</v>
       </c>
-      <c r="M82" t="s">
+      <c r="N82" t="s">
         <v>889</v>
-      </c>
-      <c r="N82" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
+        <v>890</v>
+      </c>
+      <c r="B83" t="s">
         <v>891</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>892</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>893</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>894</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>895</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>896</v>
       </c>
-      <c r="G83" t="s">
+      <c r="I83" t="s">
         <v>897</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>898</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>899</v>
       </c>
-      <c r="K83" t="s">
+      <c r="L83" t="s">
         <v>900</v>
       </c>
-      <c r="L83" t="s">
+      <c r="M83" t="s">
         <v>901</v>
       </c>
-      <c r="M83" t="s">
+      <c r="N83" t="s">
         <v>902</v>
-      </c>
-      <c r="N83" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
+        <v>903</v>
+      </c>
+      <c r="B84" t="s">
         <v>904</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>905</v>
       </c>
-      <c r="C84" t="s">
+      <c r="E84" t="s">
         <v>906</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>907</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>908</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>909</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>910</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>911</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>912</v>
       </c>
-      <c r="K84" t="s">
+      <c r="L84" t="s">
         <v>913</v>
       </c>
-      <c r="L84" t="s">
+      <c r="M84" t="s">
         <v>914</v>
       </c>
-      <c r="M84" t="s">
+      <c r="N84" t="s">
         <v>915</v>
-      </c>
-      <c r="N84" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="A85" t="s">
+        <v>916</v>
+      </c>
+      <c r="B85" t="s">
         <v>917</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>918</v>
       </c>
-      <c r="C85" t="s">
+      <c r="E85" t="s">
         <v>919</v>
       </c>
-      <c r="E85" t="s">
+      <c r="G85" t="s">
+        <v>423</v>
+      </c>
+      <c r="H85" t="s">
         <v>920</v>
       </c>
-      <c r="G85" t="s">
-        <v>424</v>
-      </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>921</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>922</v>
       </c>
-      <c r="J85" t="s">
+      <c r="L85" t="s">
         <v>923</v>
-      </c>
-      <c r="L85" t="s">
-        <v>924</v>
       </c>
       <c r="M85" t="s">
         <v>262</v>
@@ -7837,938 +7835,938 @@
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
+        <v>924</v>
+      </c>
+      <c r="B86" t="s">
         <v>925</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>926</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>927</v>
       </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>928</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>929</v>
       </c>
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>930</v>
       </c>
-      <c r="G86" t="s">
+      <c r="I86" t="s">
         <v>931</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>932</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>933</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>934</v>
       </c>
-      <c r="L86" t="s">
+      <c r="M86" t="s">
         <v>935</v>
       </c>
-      <c r="M86" t="s">
+      <c r="N86" t="s">
         <v>936</v>
-      </c>
-      <c r="N86" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="A87" t="s">
+        <v>937</v>
+      </c>
+      <c r="B87" t="s">
         <v>938</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>465</v>
+      </c>
+      <c r="E87" t="s">
         <v>939</v>
       </c>
-      <c r="C87" t="s">
-        <v>466</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="G87" t="s">
         <v>940</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>941</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>942</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>943</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>944</v>
       </c>
-      <c r="K87" t="s">
+      <c r="L87" t="s">
         <v>945</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>946</v>
       </c>
-      <c r="M87" t="s">
+      <c r="N87" t="s">
         <v>947</v>
-      </c>
-      <c r="N87" t="s">
-        <v>948</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
+        <v>948</v>
+      </c>
+      <c r="B88" t="s">
         <v>949</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>950</v>
       </c>
-      <c r="C88" t="s">
+      <c r="E88" t="s">
         <v>951</v>
       </c>
-      <c r="E88" t="s">
+      <c r="G88" t="s">
         <v>952</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>953</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>954</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>955</v>
-      </c>
-      <c r="J88" t="s">
-        <v>956</v>
       </c>
       <c r="K88" t="s">
         <v>323</v>
       </c>
       <c r="L88" t="s">
+        <v>956</v>
+      </c>
+      <c r="M88" t="s">
         <v>957</v>
       </c>
-      <c r="M88" t="s">
+      <c r="N88" t="s">
         <v>958</v>
-      </c>
-      <c r="N88" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
+        <v>959</v>
+      </c>
+      <c r="B89" t="s">
         <v>960</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>961</v>
       </c>
-      <c r="C89" t="s">
+      <c r="E89" t="s">
+        <v>939</v>
+      </c>
+      <c r="G89" t="s">
         <v>962</v>
       </c>
-      <c r="E89" t="s">
-        <v>940</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>963</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>964</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>965</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>966</v>
       </c>
-      <c r="K89" t="s">
+      <c r="L89" t="s">
         <v>967</v>
       </c>
-      <c r="L89" t="s">
+      <c r="M89" t="s">
         <v>968</v>
       </c>
-      <c r="M89" t="s">
+      <c r="N89" t="s">
         <v>969</v>
-      </c>
-      <c r="N89" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="A90" t="s">
+        <v>970</v>
+      </c>
+      <c r="B90" t="s">
         <v>971</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>972</v>
       </c>
-      <c r="C90" t="s">
+      <c r="E90" t="s">
+        <v>972</v>
+      </c>
+      <c r="G90" t="s">
         <v>973</v>
       </c>
-      <c r="E90" t="s">
-        <v>973</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>974</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>975</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>976</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>977</v>
       </c>
-      <c r="K90" t="s">
+      <c r="L90" t="s">
         <v>978</v>
       </c>
-      <c r="L90" t="s">
+      <c r="M90" t="s">
         <v>979</v>
       </c>
-      <c r="M90" t="s">
+      <c r="N90" t="s">
         <v>980</v>
-      </c>
-      <c r="N90" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
+        <v>981</v>
+      </c>
+      <c r="B91" t="s">
         <v>982</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>983</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>984</v>
       </c>
-      <c r="E91" t="s">
-        <v>985</v>
-      </c>
       <c r="F91" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G91" t="s">
         <v>106</v>
       </c>
       <c r="I91" t="s">
+        <v>985</v>
+      </c>
+      <c r="J91" t="s">
         <v>986</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>987</v>
       </c>
-      <c r="K91" t="s">
+      <c r="L91" t="s">
         <v>988</v>
       </c>
-      <c r="L91" t="s">
+      <c r="M91" t="s">
         <v>989</v>
       </c>
-      <c r="M91" t="s">
+      <c r="N91" t="s">
         <v>990</v>
-      </c>
-      <c r="N91" t="s">
-        <v>991</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="A92" t="s">
+        <v>991</v>
+      </c>
+      <c r="B92" t="s">
         <v>992</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>993</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>994</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>995</v>
       </c>
-      <c r="E92" t="s">
+      <c r="G92" t="s">
         <v>996</v>
       </c>
-      <c r="G92" t="s">
+      <c r="I92" t="s">
         <v>997</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>998</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>999</v>
       </c>
-      <c r="K92" t="s">
+      <c r="L92" t="s">
         <v>1000</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>1001</v>
       </c>
-      <c r="M92" t="s">
+      <c r="N92" t="s">
         <v>1002</v>
-      </c>
-      <c r="N92" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B93" t="s">
         <v>1004</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>1005</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>1006</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>1007</v>
       </c>
-      <c r="E93" t="s">
+      <c r="G93" t="s">
         <v>1008</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>1009</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>1010</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>1011</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>1012</v>
       </c>
-      <c r="K93" t="s">
+      <c r="L93" t="s">
         <v>1013</v>
       </c>
-      <c r="L93" t="s">
+      <c r="M93" t="s">
         <v>1014</v>
       </c>
-      <c r="M93" t="s">
+      <c r="N93" t="s">
         <v>1015</v>
-      </c>
-      <c r="N93" t="s">
-        <v>1016</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B94" t="s">
         <v>1017</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>1018</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>1019</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>1020</v>
       </c>
-      <c r="E94" t="s">
+      <c r="G94" t="s">
         <v>1021</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>1022</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
+        <v>954</v>
+      </c>
+      <c r="J94" t="s">
         <v>1023</v>
       </c>
-      <c r="I94" t="s">
-        <v>955</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>1024</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>1025</v>
       </c>
-      <c r="L94" t="s">
+      <c r="M94" t="s">
         <v>1026</v>
       </c>
-      <c r="M94" t="s">
+      <c r="N94" t="s">
         <v>1027</v>
-      </c>
-      <c r="N94" t="s">
-        <v>1028</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B95" t="s">
         <v>1029</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>1030</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1031</v>
       </c>
       <c r="E95" t="s">
         <v>198</v>
       </c>
       <c r="G95" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H95" t="s">
         <v>1032</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>1033</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>1034</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>1035</v>
       </c>
-      <c r="K95" t="s">
+      <c r="L95" t="s">
         <v>1036</v>
       </c>
-      <c r="L95" t="s">
+      <c r="M95" t="s">
         <v>1037</v>
       </c>
-      <c r="M95" t="s">
+      <c r="N95" t="s">
         <v>1038</v>
-      </c>
-      <c r="N95" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B96" t="s">
         <v>1040</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>1041</v>
       </c>
-      <c r="C96" t="s">
+      <c r="E96" t="s">
         <v>1042</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>1043</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G96" t="s">
         <v>1044</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>1045</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>1046</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>1047</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>1048</v>
       </c>
-      <c r="K96" t="s">
+      <c r="L96" t="s">
         <v>1049</v>
       </c>
-      <c r="L96" t="s">
+      <c r="M96" t="s">
         <v>1050</v>
       </c>
-      <c r="M96" t="s">
+      <c r="N96" t="s">
         <v>1051</v>
-      </c>
-      <c r="N96" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="A97" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B97" t="s">
         <v>1053</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>1054</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>1055</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>1056</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>1057</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>1058</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>1059</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>1060</v>
       </c>
-      <c r="K97" t="s">
+      <c r="L97" t="s">
         <v>1061</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>1062</v>
       </c>
-      <c r="M97" t="s">
+      <c r="N97" t="s">
         <v>1063</v>
-      </c>
-      <c r="N97" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B98" t="s">
         <v>1065</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>1066</v>
       </c>
-      <c r="C98" t="s">
+      <c r="E98" t="s">
         <v>1067</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>1068</v>
       </c>
-      <c r="F98" t="s">
+      <c r="G98" t="s">
         <v>1069</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>1070</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
+        <v>954</v>
+      </c>
+      <c r="J98" t="s">
         <v>1071</v>
       </c>
-      <c r="I98" t="s">
-        <v>955</v>
-      </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>1072</v>
       </c>
-      <c r="K98" t="s">
+      <c r="L98" t="s">
         <v>1073</v>
       </c>
-      <c r="L98" t="s">
+      <c r="M98" t="s">
         <v>1074</v>
       </c>
-      <c r="M98" t="s">
+      <c r="N98" t="s">
         <v>1075</v>
-      </c>
-      <c r="N98" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B99" t="s">
         <v>1077</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>1078</v>
       </c>
-      <c r="C99" t="s">
+      <c r="I99" t="s">
         <v>1079</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>1080</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>1081</v>
       </c>
-      <c r="K99" t="s">
+      <c r="L99" t="s">
         <v>1082</v>
       </c>
-      <c r="L99" t="s">
+      <c r="M99" t="s">
         <v>1083</v>
       </c>
-      <c r="M99" t="s">
+      <c r="N99" t="s">
         <v>1084</v>
-      </c>
-      <c r="N99" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="A100" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B100" t="s">
         <v>1086</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>1087</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>1088</v>
       </c>
-      <c r="D100" t="s">
+      <c r="E100" t="s">
         <v>1089</v>
       </c>
-      <c r="E100" t="s">
+      <c r="G100" t="s">
         <v>1090</v>
       </c>
-      <c r="G100" t="s">
-        <v>1091</v>
-      </c>
       <c r="I100" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="J100" t="s">
         <v>278</v>
       </c>
       <c r="K100" t="s">
+        <v>1091</v>
+      </c>
+      <c r="L100" t="s">
         <v>1092</v>
       </c>
-      <c r="L100" t="s">
+      <c r="M100" t="s">
         <v>1093</v>
       </c>
-      <c r="M100" t="s">
+      <c r="N100" t="s">
         <v>1094</v>
-      </c>
-      <c r="N100" t="s">
-        <v>1095</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B101" t="s">
         <v>1096</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>1097</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>1098</v>
       </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
         <v>1099</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>1100</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
+        <v>423</v>
+      </c>
+      <c r="I101" t="s">
         <v>1101</v>
       </c>
-      <c r="G101" t="s">
-        <v>424</v>
-      </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>1102</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>1103</v>
       </c>
-      <c r="K101" t="s">
+      <c r="L101" t="s">
         <v>1104</v>
       </c>
-      <c r="L101" t="s">
+      <c r="M101" t="s">
         <v>1105</v>
       </c>
-      <c r="M101" t="s">
+      <c r="N101" t="s">
         <v>1106</v>
-      </c>
-      <c r="N101" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B102" t="s">
         <v>1108</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>1109</v>
       </c>
-      <c r="C102" t="s">
+      <c r="E102" t="s">
         <v>1110</v>
       </c>
-      <c r="E102" t="s">
+      <c r="G102" t="s">
         <v>1111</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>1112</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>1113</v>
       </c>
-      <c r="I102" t="s">
+      <c r="J102" t="s">
+        <v>780</v>
+      </c>
+      <c r="K102" t="s">
         <v>1114</v>
       </c>
-      <c r="J102" t="s">
-        <v>781</v>
-      </c>
-      <c r="K102" t="s">
+      <c r="L102" t="s">
         <v>1115</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>1116</v>
       </c>
-      <c r="M102" t="s">
+      <c r="N102" t="s">
         <v>1117</v>
-      </c>
-      <c r="N102" t="s">
-        <v>1118</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B103" t="s">
         <v>1119</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>1120</v>
       </c>
-      <c r="C103" t="s">
+      <c r="E103" t="s">
         <v>1121</v>
       </c>
-      <c r="E103" t="s">
+      <c r="G103" t="s">
         <v>1122</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>1123</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>1124</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>1125</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>1126</v>
       </c>
-      <c r="K103" t="s">
+      <c r="L103" t="s">
         <v>1127</v>
       </c>
-      <c r="L103" t="s">
+      <c r="M103" t="s">
         <v>1128</v>
       </c>
-      <c r="M103" t="s">
+      <c r="N103" t="s">
         <v>1129</v>
-      </c>
-      <c r="N103" t="s">
-        <v>1130</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B104" t="s">
         <v>1131</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>1132</v>
       </c>
-      <c r="C104" t="s">
+      <c r="E104" t="s">
+        <v>939</v>
+      </c>
+      <c r="G104" t="s">
         <v>1133</v>
       </c>
-      <c r="E104" t="s">
-        <v>940</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="I104" t="s">
         <v>1134</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>1135</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>1136</v>
       </c>
-      <c r="K104" t="s">
+      <c r="L104" t="s">
         <v>1137</v>
       </c>
-      <c r="L104" t="s">
+      <c r="M104" t="s">
         <v>1138</v>
       </c>
-      <c r="M104" t="s">
+      <c r="N104" t="s">
         <v>1139</v>
-      </c>
-      <c r="N104" t="s">
-        <v>1140</v>
       </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B105" t="s">
         <v>1141</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>1142</v>
       </c>
-      <c r="C105" t="s">
+      <c r="E105" t="s">
         <v>1143</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>1144</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
+        <v>423</v>
+      </c>
+      <c r="H105" t="s">
         <v>1145</v>
       </c>
-      <c r="G105" t="s">
-        <v>424</v>
-      </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>1146</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>1147</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>1148</v>
       </c>
-      <c r="K105" t="s">
+      <c r="L105" t="s">
         <v>1149</v>
       </c>
-      <c r="L105" t="s">
+      <c r="M105" t="s">
         <v>1150</v>
       </c>
-      <c r="M105" t="s">
+      <c r="N105" t="s">
         <v>1151</v>
-      </c>
-      <c r="N105" t="s">
-        <v>1152</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B106" t="s">
         <v>1153</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>1154</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>1155</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>1156</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>1157</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>1158</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>1159</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>1160</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>1161</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>1162</v>
       </c>
-      <c r="K106" t="s">
+      <c r="L106" t="s">
         <v>1163</v>
       </c>
-      <c r="L106" t="s">
+      <c r="M106" t="s">
         <v>1164</v>
       </c>
-      <c r="M106" t="s">
+      <c r="N106" t="s">
         <v>1165</v>
-      </c>
-      <c r="N106" t="s">
-        <v>1166</v>
       </c>
     </row>
     <row r="107" spans="1:14">
       <c r="A107" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B107" t="s">
         <v>1167</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>1168</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>1169</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107" t="s">
         <v>1170</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>1171</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>1172</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>1173</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>1174</v>
-      </c>
-      <c r="I107" t="s">
-        <v>1175</v>
       </c>
       <c r="J107" t="s">
         <v>278</v>
       </c>
       <c r="K107" t="s">
+        <v>1175</v>
+      </c>
+      <c r="L107" t="s">
         <v>1176</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>1177</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>1178</v>
-      </c>
-      <c r="N107" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B108" t="s">
         <v>1180</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>1181</v>
       </c>
-      <c r="C108" t="s">
+      <c r="E108" t="s">
         <v>1182</v>
       </c>
-      <c r="E108" t="s">
+      <c r="G108" t="s">
         <v>1183</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>1184</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>1185</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>1186</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>1187</v>
       </c>
-      <c r="K108" t="s">
+      <c r="L108" t="s">
         <v>1188</v>
       </c>
-      <c r="L108" t="s">
+      <c r="M108" t="s">
         <v>1189</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N108" t="s">
         <v>1190</v>
-      </c>
-      <c r="N108" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B109" t="s">
         <v>1192</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>1193</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>1194</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>1195</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>1196</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>1197</v>
       </c>
-      <c r="G109" t="s">
+      <c r="I109" t="s">
         <v>1198</v>
       </c>
-      <c r="I109" t="s">
+      <c r="J109" t="s">
         <v>1199</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>1200</v>
       </c>
-      <c r="K109" t="s">
+      <c r="L109" t="s">
         <v>1201</v>
       </c>
-      <c r="L109" t="s">
+      <c r="M109" t="s">
         <v>1202</v>
       </c>
-      <c r="M109" t="s">
+      <c r="N109" t="s">
         <v>1203</v>
-      </c>
-      <c r="N109" t="s">
-        <v>1204</v>
       </c>
     </row>
   </sheetData>
